--- a/data/hotels_by_city/Houston/Houston_shard_680.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_680.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1147065-Reviews-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-WoodSpring-Suites-Houston-Westchase.h2133716.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,549 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r555246025-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1147065</t>
+  </si>
+  <si>
+    <t>555246025</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Not upto woodsprings standards!</t>
+  </si>
+  <si>
+    <t>I spent a week there, had to change the room once since the AC  was not working properly and I was not getting a good reception on the hotel wifi . But when I learned that they provide services to homeless and such, I moved out due to sanitation and health concerns.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>I spent a week there, had to change the room once since the AC  was not working properly and I was not getting a good reception on the hotel wifi . But when I learned that they provide services to homeless and such, I moved out due to sanitation and health concerns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r553067053-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553067053</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Noise &amp; allergic</t>
+  </si>
+  <si>
+    <t>There are two problem really trouble me during the stay.1st is Noise. Not only the major high way (Sam houston) nearby create road noise. The floor were really thin.You can hear everyone around you.2nd is allergic. There AC is really dirty, and blow out all mold, bacteria and bad stuff like that in it. I was cough &amp; nose ran like crazy during my two weeks stay.Oh, by the way their PAID wifi is like ****. Avoid it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>There are two problem really trouble me during the stay.1st is Noise. Not only the major high way (Sam houston) nearby create road noise. The floor were really thin.You can hear everyone around you.2nd is allergic. There AC is really dirty, and blow out all mold, bacteria and bad stuff like that in it. I was cough &amp; nose ran like crazy during my two weeks stay.Oh, by the way their PAID wifi is like ****. Avoid it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r519861535-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519861535</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>expected better.....</t>
+  </si>
+  <si>
+    <t>Got to the property late on july 18 and was attended to even though the office closed at 10pm.The room was spacious and beautiful but was only cleaned once every two weeks which I consider very poor.the room had a kitchenette but the kitchen had no utensils(they should take a clue from studio 6 which keeps pots, plates, cutlery etc).The Wifi was terrible that I had to use my personal data almost all through my 5weeks stay.They have a beautiful and friendly manager Ms Tessy which tried all she could to get me a fast wifi service to no avail.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Got to the property late on july 18 and was attended to even though the office closed at 10pm.The room was spacious and beautiful but was only cleaned once every two weeks which I consider very poor.the room had a kitchenette but the kitchen had no utensils(they should take a clue from studio 6 which keeps pots, plates, cutlery etc).The Wifi was terrible that I had to use my personal data almost all through my 5weeks stay.They have a beautiful and friendly manager Ms Tessy which tried all she could to get me a fast wifi service to no avail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r473419640-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473419640</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>nice hotel ok area</t>
+  </si>
+  <si>
+    <t>hotel was nice and clean the area was nice and the room was very clean will stay here again. Also it was nice and quiet, breakfast was pretty good and nice and warm will definitely try here again when I visit the houston areaMoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2017</t>
+  </si>
+  <si>
+    <t>hotel was nice and clean the area was nice and the room was very clean will stay here again. Also it was nice and quiet, breakfast was pretty good and nice and warm will definitely try here again when I visit the houston areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r454407833-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454407833</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>friendly staff, good location &amp; price</t>
+  </si>
+  <si>
+    <t>The only problem that I had was the noise of the A/C and someone in the room above. However, the staff was very nice. The guy in front desk was super friendly. The room and facilities are new. The bed is very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>The only problem that I had was the noise of the A/C and someone in the room above. However, the staff was very nice. The guy in front desk was super friendly. The room and facilities are new. The bed is very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r446363996-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446363996</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Ms. Deirdre &amp; Mr. Shabazz Are The Heart &amp; Soul Of This Hotel.</t>
+  </si>
+  <si>
+    <t>This hotel may be listed as 2 - star &amp; rightfully so structurally speaking. However, when it comes to the people who work here, the very embodiment &amp; core of the experience, it is off the charts. If you are looking for luxury &amp; high end ammenities this is not the place for you. If you're looking for simplicity, where your needs are met, and the service is impeccable than it fits the bill. 
+Hotel: Simple. Convenient. Inexpensive. Functional. Down To Earth. 
+Service: Outstanding. Ms. D is the absolute epitome &amp; model of what customer service should be. Professional. Attentive. Personable. Loving. Beautiful Personality. She is the only one that I have ever met that will literally go above &amp; beyond to ensure the needs of the customer are met. The only one that will come down at 2 in the morning &amp; get you toilet paper. &amp; with a smile on her face. Lol. A ray of sunshine that brightens the day of every single person that walks through the door. She treats everyone with respect &amp; kindness. Treats everyone like family. You can talk to her for hours &amp; it's like you've known her forever. 
+Mr. Thomas is no exception to the service you receive here. He is maintenance and you don't see him much as he's very busy, but when you do he too brightens your day. Very attentive, courteous, respectful, and understanding. Jack of all trades....This hotel may be listed as 2 - star &amp; rightfully so structurally speaking. However, when it comes to the people who work here, the very embodiment &amp; core of the experience, it is off the charts. If you are looking for luxury &amp; high end ammenities this is not the place for you. If you're looking for simplicity, where your needs are met, and the service is impeccable than it fits the bill. Hotel: Simple. Convenient. Inexpensive. Functional. Down To Earth. Service: Outstanding. Ms. D is the absolute epitome &amp; model of what customer service should be. Professional. Attentive. Personable. Loving. Beautiful Personality. She is the only one that I have ever met that will literally go above &amp; beyond to ensure the needs of the customer are met. The only one that will come down at 2 in the morning &amp; get you toilet paper. &amp; with a smile on her face. Lol. A ray of sunshine that brightens the day of every single person that walks through the door. She treats everyone with respect &amp; kindness. Treats everyone like family. You can talk to her for hours &amp; it's like you've known her forever. Mr. Thomas is no exception to the service you receive here. He is maintenance and you don't see him much as he's very busy, but when you do he too brightens your day. Very attentive, courteous, respectful, and understanding. Jack of all trades. If you ever need something fixed he is the man to do the job. Does it in a timely &amp; respectful manner. So, yes, structurally speaking there is much left to be desired. However, the service &amp; people- the quality &amp; caliber are insurmounable. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Guest Relations Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>This hotel may be listed as 2 - star &amp; rightfully so structurally speaking. However, when it comes to the people who work here, the very embodiment &amp; core of the experience, it is off the charts. If you are looking for luxury &amp; high end ammenities this is not the place for you. If you're looking for simplicity, where your needs are met, and the service is impeccable than it fits the bill. 
+Hotel: Simple. Convenient. Inexpensive. Functional. Down To Earth. 
+Service: Outstanding. Ms. D is the absolute epitome &amp; model of what customer service should be. Professional. Attentive. Personable. Loving. Beautiful Personality. She is the only one that I have ever met that will literally go above &amp; beyond to ensure the needs of the customer are met. The only one that will come down at 2 in the morning &amp; get you toilet paper. &amp; with a smile on her face. Lol. A ray of sunshine that brightens the day of every single person that walks through the door. She treats everyone with respect &amp; kindness. Treats everyone like family. You can talk to her for hours &amp; it's like you've known her forever. 
+Mr. Thomas is no exception to the service you receive here. He is maintenance and you don't see him much as he's very busy, but when you do he too brightens your day. Very attentive, courteous, respectful, and understanding. Jack of all trades....This hotel may be listed as 2 - star &amp; rightfully so structurally speaking. However, when it comes to the people who work here, the very embodiment &amp; core of the experience, it is off the charts. If you are looking for luxury &amp; high end ammenities this is not the place for you. If you're looking for simplicity, where your needs are met, and the service is impeccable than it fits the bill. Hotel: Simple. Convenient. Inexpensive. Functional. Down To Earth. Service: Outstanding. Ms. D is the absolute epitome &amp; model of what customer service should be. Professional. Attentive. Personable. Loving. Beautiful Personality. She is the only one that I have ever met that will literally go above &amp; beyond to ensure the needs of the customer are met. The only one that will come down at 2 in the morning &amp; get you toilet paper. &amp; with a smile on her face. Lol. A ray of sunshine that brightens the day of every single person that walks through the door. She treats everyone with respect &amp; kindness. Treats everyone like family. You can talk to her for hours &amp; it's like you've known her forever. Mr. Thomas is no exception to the service you receive here. He is maintenance and you don't see him much as he's very busy, but when you do he too brightens your day. Very attentive, courteous, respectful, and understanding. Jack of all trades. If you ever need something fixed he is the man to do the job. Does it in a timely &amp; respectful manner. So, yes, structurally speaking there is much left to be desired. However, the service &amp; people- the quality &amp; caliber are insurmounable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r422511117-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422511117</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Thanks Kim Barrs!</t>
+  </si>
+  <si>
+    <t>I have been  through many hotel stays, but Value  Place extended stay in Houston TX, is the most memorable. It is not only clean, the staff is very kind and welcoming. There is a FOH worker name Kim Barrs that knows and understand the meaning of  Great Customer Service. This is a lady that can be a mentor to others on how to run a hotel and giving the guest the feeling of home away from home. I will give this place a 5, for clean and Kim Barrs!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>I have been  through many hotel stays, but Value  Place extended stay in Houston TX, is the most memorable. It is not only clean, the staff is very kind and welcoming. There is a FOH worker name Kim Barrs that knows and understand the meaning of  Great Customer Service. This is a lady that can be a mentor to others on how to run a hotel and giving the guest the feeling of home away from home. I will give this place a 5, for clean and Kim Barrs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r418357626-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418357626</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>I arrived early before check-in time, and front desk (Tracy) went out of her way to be accommodating. I also asked for extra pillows, and once again the staff was very helpful. The room was very clean and comfortable. I had a great stay and would highly recommend this location. All the staff was friendly &amp; overall  GREAT !!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>I arrived early before check-in time, and front desk (Tracy) went out of her way to be accommodating. I also asked for extra pillows, and once again the staff was very helpful. The room was very clean and comfortable. I had a great stay and would highly recommend this location. All the staff was friendly &amp; overall  GREAT !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r390169824-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390169824</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Welcoming, Great customer service from below team</t>
+  </si>
+  <si>
+    <t>I cant fault these great team: Kim, Tracy, Deirdre, and Lisa. there to assist, polite, welcoming and assisted me to settle in, not only in the hotel but around the city of Houston by provide city guide and attractions. Perfect team.Clean room, thumps up !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2016</t>
+  </si>
+  <si>
+    <t>I cant fault these great team: Kim, Tracy, Deirdre, and Lisa. there to assist, polite, welcoming and assisted me to settle in, not only in the hotel but around the city of Houston by provide city guide and attractions. Perfect team.Clean room, thumps up !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r349526154-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349526154</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Slum</t>
+  </si>
+  <si>
+    <t>Omg!! I booked this place on Booking.com. Needless to say the info and pics were very misleading. Once arriving I had to use a mysterious phone to call for assistance. Yuk! Once the manager arrived and stated that I woke him up. He proceeded to check me in and conveniently could not find my reservation, which was fine with me because the place smelled of piss. I would not send my worst enemy here. It is a place for nobody.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Omg!! I booked this place on Booking.com. Needless to say the info and pics were very misleading. Once arriving I had to use a mysterious phone to call for assistance. Yuk! Once the manager arrived and stated that I woke him up. He proceeded to check me in and conveniently could not find my reservation, which was fine with me because the place smelled of piss. I would not send my worst enemy here. It is a place for nobody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r345973612-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345973612</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>A great place for family vacation</t>
+  </si>
+  <si>
+    <t>We arrived at Value Place West Sam after a long trip from Nigeria, and in no time we were shown our room with had all facilities in working condition. Firstly, the location is well thought out, in a serene and easy-to-access West Sam Houston Parkway. Secondly, I enjoyed the free high speed WiFi, good housekeeping, excellent laundry, and most of all, the amazing staff are second to none. I give them five star! If you are planning on going on vacation in Houston U.S, Value Place Westchase is highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at Value Place West Sam after a long trip from Nigeria, and in no time we were shown our room with had all facilities in working condition. Firstly, the location is well thought out, in a serene and easy-to-access West Sam Houston Parkway. Secondly, I enjoyed the free high speed WiFi, good housekeeping, excellent laundry, and most of all, the amazing staff are second to none. I give them five star! If you are planning on going on vacation in Houston U.S, Value Place Westchase is highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r339236850-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339236850</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I have been at Value Place/West-Chase for over a year. In the beginning I did not enjoy being misplace but living here has enlighten my prospective of being misplace. I quickly learn to appreciate the privy of being able to have this accommodation to result to. Value Place at 5959 W Sam Houston S. Pkwy provides excellent customer expertise, room services and resident attention. Value Place provide all the amenities of your own home and the price is very affordable. I love the fact the I chose Value Place as a short term solutions.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I have been at Value Place/West-Chase for over a year. In the beginning I did not enjoy being misplace but living here has enlighten my prospective of being misplace. I quickly learn to appreciate the privy of being able to have this accommodation to result to. Value Place at 5959 W Sam Houston S. Pkwy provides excellent customer expertise, room services and resident attention. Value Place provide all the amenities of your own home and the price is very affordable. I love the fact the I chose Value Place as a short term solutions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r316603946-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316603946</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay at this hotel. The receptionist Tenesha was very helpful and friendly, she made our check in process easy. The room was clean and bigger than most. My family and I Will be extending our stay.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r316169616-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316169616</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>quiet stay great price</t>
+  </si>
+  <si>
+    <t>I travel all over and my stay at value place is very helpful. Starting with my the receptionist Tanishia she help me find the best room that fit my needs and with the best prices. The rooms are large compered to most other hotels in there class. Great stay and looking forward to extend my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r311102794-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311102794</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing staff </t>
+  </si>
+  <si>
+    <t>Friendly staff and always attentive. Rooms are always kept clean. I always get plenty of deep sleep. Never see folks hanging around outside or never had an issue with loud noise.  Will most definitely be returning!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r295323527-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295323527</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>CLEAN CLEAN CLEAN!!</t>
+  </si>
+  <si>
+    <t>My employees and I are in Houston for 4 weeks. Our first week we were at another hotel chain and encountered several secuirty and cleanliness issues. After looking all over the Westchase area I spoke with Emelda the assistance manager and she let me know they would be able to take care of us for our remaining weeks. I booked our next week and my team was very please with the CLEAN rooms. Emelnda even made sure to give us rooms that would suit our training hours. We were so pleased we went ahead and booked the remaining weeks and are telling other traniees coming to Houston to also stay here. MTEMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My employees and I are in Houston for 4 weeks. Our first week we were at another hotel chain and encountered several secuirty and cleanliness issues. After looking all over the Westchase area I spoke with Emelda the assistance manager and she let me know they would be able to take care of us for our remaining weeks. I booked our next week and my team was very please with the CLEAN rooms. Emelnda even made sure to give us rooms that would suit our training hours. We were so pleased we went ahead and booked the remaining weeks and are telling other traniees coming to Houston to also stay here. MTEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r284770248-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284770248</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay very nice people that work there rooms very clean an the manger tracy make you have a very nice stay</t>
+  </si>
+  <si>
+    <t>Only place I will stay when I come to Houston,Texas very good food place all around value place.An rooms or very clean an have plenty of room for your tools if u have any,An a very good area.So please go an see for yourself you will not mad at all</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r282893612-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282893612</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Pastor</t>
+  </si>
+  <si>
+    <t>So far I have been here for over a month and have had very good service and friendly atmosphere. I generally like peace and quite while I'm staying somewhere and I also like my study time. I give this hotel a thumbs UP!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r279530708-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279530708</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Value Place review</t>
+  </si>
+  <si>
+    <t>Value Place , Houston - Westchase was a pleasant stay.  It was clean, safe, and inexpensive. Addtionally, the management staff was very friendly, organized and professional and would accommodate you in a friendly manner.  I would recommend this hotel and also be willing to stay here anytime I am in this area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r273810982-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273810982</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>My Stay at Value Place</t>
+  </si>
+  <si>
+    <t>Value Place truely lived up to its name. The sevices were superb and to say the least my expectations were all met. I hope that this standard is maintained or even surpassed. Planning to visitagain in my next trip.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r264675612-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264675612</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Awesome place!!!!</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 weeks whilst undergoing medical treatment. I could not have stayed at a better place!!! Firstly, I was very much impressed with the cleanliness of the lobby, corridor and my room. Secondly, I felt very safe in my room as only guests with card/key has access to the building.  But the highlight of my trip was the very friendly and helpful staff there who made me feel "at home"!!!! Needless to say, I will be back here upon my return to Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r148609281-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148609281</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Break in</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel for a week. Towards the middle of my stay my husband left our room around 7:30 am, I woke up at 8:45. I looked out the window and my tires were GONE. ALL FOR TIRES. This hotel doesn't have security, they have cameras but we were told they do not work.....DO NOT STAY AT THE HOTEL IN  WESTCHASE..April Henderson</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r148473835-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148473835</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Value Place-West Chase does not honor reservations</t>
+  </si>
+  <si>
+    <t>Value Place-West Chase does not honor reservations.  You definitely could be disappointed if you show up expecting the room you reserved to be available.  Make sure you arrive early enough in the day so you will have time to find another place to stay if this happens to you.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r133435964-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133435964</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>My stay with Value Place Westchase was not what I expected. I knew the rooms would be very basic, no frills and that was ok, but I didn't expect the Roaches! When I checked in, the front desk person showed me to my room to get my approval. I looked around and didn't see anything out of the ordinary, so I said ok.  After I'd been in the room for about an hour, things changed. First, I saw a small Roach climbing the wall. I hoped for the best, but decided to buy bug spray just in case. After all, the rooms have stoves and refrigerators in them. After two days of Roaches of various sizes, I knew I'd made the wrong choice in hotels. My husband and I decided that we would leave at the end of our week and chalk it up as a lesson learned. We have one night left, but after finding 5 Roaches in the bathroom last night and 2 small ones in one of the beds, we've had enough. Now, in all fairness, they do have an exterminator come by on a regular basis. He came by and when I answered the door he said, "I'm here to treat your roaches". The interesting thing is that we never told anyone about the Roaches, so how would he know?!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My stay with Value Place Westchase was not what I expected. I knew the rooms would be very basic, no frills and that was ok, but I didn't expect the Roaches! When I checked in, the front desk person showed me to my room to get my approval. I looked around and didn't see anything out of the ordinary, so I said ok.  After I'd been in the room for about an hour, things changed. First, I saw a small Roach climbing the wall. I hoped for the best, but decided to buy bug spray just in case. After all, the rooms have stoves and refrigerators in them. After two days of Roaches of various sizes, I knew I'd made the wrong choice in hotels. My husband and I decided that we would leave at the end of our week and chalk it up as a lesson learned. We have one night left, but after finding 5 Roaches in the bathroom last night and 2 small ones in one of the beds, we've had enough. Now, in all fairness, they do have an exterminator come by on a regular basis. He came by and when I answered the door he said, "I'm here to treat your roaches". The interesting thing is that we never told anyone about the Roaches, so how would he know?!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1084,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1116,1565 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_680.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_680.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r576821445-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1147065</t>
+  </si>
+  <si>
+    <t>576821445</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Don't say here</t>
+  </si>
+  <si>
+    <t>While booking the hotel, my friend had a rude employee named Chris, who dismissed her while on the phone and never took her information when trying to confirm info. She had to ask to speak to the manager. When we arrived to stay at the hotel for three nights. The first night, We went in to the room and there was only one full size bed. We went back to the front desk and explained we had the wrong room. We booked a double bed room. They stated it was a double bed, meaning two twin beds pushed together. We looked on the website it is is even pictured with two separate beds for the  double bed room. They stated that management should stop advertising the room this way. They put us in a room with two queen beds but then stated that when management come in, during the morning we would need to come up and pay the difference for the "upgrade" in rooms. While in the bathroom later the same evening there was a baby roach walking on the sink. The next morning there was a larger roach crawling on the bedside table. We called the front desk and told them we would not be staying for the additional nights. They came to the room to find out why and we told them we saw multiple roaches. They stated oh... yea. We had an exterminator here yesterday. They...While booking the hotel, my friend had a rude employee named Chris, who dismissed her while on the phone and never took her information when trying to confirm info. She had to ask to speak to the manager. When we arrived to stay at the hotel for three nights. The first night, We went in to the room and there was only one full size bed. We went back to the front desk and explained we had the wrong room. We booked a double bed room. They stated it was a double bed, meaning two twin beds pushed together. We looked on the website it is is even pictured with two separate beds for the  double bed room. They stated that management should stop advertising the room this way. They put us in a room with two queen beds but then stated that when management come in, during the morning we would need to come up and pay the difference for the "upgrade" in rooms. While in the bathroom later the same evening there was a baby roach walking on the sink. The next morning there was a larger roach crawling on the bedside table. We called the front desk and told them we would not be staying for the additional nights. They came to the room to find out why and we told them we saw multiple roaches. They stated oh... yea. We had an exterminator here yesterday. They canceled the charge for the other 2 nights the same day but two days later my friends card was charged $180 dollars again. The bed was pretty thin, and so were the pillows. They also said if you want new towels to come to the front desk with your old towels to exchange them.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>While booking the hotel, my friend had a rude employee named Chris, who dismissed her while on the phone and never took her information when trying to confirm info. She had to ask to speak to the manager. When we arrived to stay at the hotel for three nights. The first night, We went in to the room and there was only one full size bed. We went back to the front desk and explained we had the wrong room. We booked a double bed room. They stated it was a double bed, meaning two twin beds pushed together. We looked on the website it is is even pictured with two separate beds for the  double bed room. They stated that management should stop advertising the room this way. They put us in a room with two queen beds but then stated that when management come in, during the morning we would need to come up and pay the difference for the "upgrade" in rooms. While in the bathroom later the same evening there was a baby roach walking on the sink. The next morning there was a larger roach crawling on the bedside table. We called the front desk and told them we would not be staying for the additional nights. They came to the room to find out why and we told them we saw multiple roaches. They stated oh... yea. We had an exterminator here yesterday. They...While booking the hotel, my friend had a rude employee named Chris, who dismissed her while on the phone and never took her information when trying to confirm info. She had to ask to speak to the manager. When we arrived to stay at the hotel for three nights. The first night, We went in to the room and there was only one full size bed. We went back to the front desk and explained we had the wrong room. We booked a double bed room. They stated it was a double bed, meaning two twin beds pushed together. We looked on the website it is is even pictured with two separate beds for the  double bed room. They stated that management should stop advertising the room this way. They put us in a room with two queen beds but then stated that when management come in, during the morning we would need to come up and pay the difference for the "upgrade" in rooms. While in the bathroom later the same evening there was a baby roach walking on the sink. The next morning there was a larger roach crawling on the bedside table. We called the front desk and told them we would not be staying for the additional nights. They came to the room to find out why and we told them we saw multiple roaches. They stated oh... yea. We had an exterminator here yesterday. They canceled the charge for the other 2 nights the same day but two days later my friends card was charged $180 dollars again. The bed was pretty thin, and so were the pillows. They also said if you want new towels to come to the front desk with your old towels to exchange them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r566774289-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566774289</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Great Deal</t>
+  </si>
+  <si>
+    <t>Upon checking in staff is very nice. they get the job done in great time . i was only here for night . but felt like i was at home. very clean and safe! parking lot was clear and easy parking to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Upon checking in staff is very nice. they get the job done in great time . i was only here for night . but felt like i was at home. very clean and safe! parking lot was clear and easy parking to choose from.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r555246025-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1147065</t>
-  </si>
-  <si>
     <t>555246025</t>
   </si>
   <si>
@@ -207,9 +267,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded January 17, 2018</t>
   </si>
   <si>
@@ -247,6 +304,48 @@
   </si>
   <si>
     <t>Got to the property late on july 18 and was attended to even though the office closed at 10pm.The room was spacious and beautiful but was only cleaned once every two weeks which I consider very poor.the room had a kitchenette but the kitchen had no utensils(they should take a clue from studio 6 which keeps pots, plates, cutlery etc).The Wifi was terrible that I had to use my personal data almost all through my 5weeks stay.They have a beautiful and friendly manager Ms Tessy which tried all she could to get me a fast wifi service to no avail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r517515672-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517515672</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Nice experience</t>
+  </si>
+  <si>
+    <t>Clean rooms nice friendly staff great locations around alot of great food places around the Westchase area of houston also not to far away from the galleria are wheres theres even more great places to visit see and eat in or dine out at.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean rooms nice friendly staff great locations around alot of great food places around the Westchase area of houston also not to far away from the galleria are wheres theres even more great places to visit see and eat in or dine out at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r498715474-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498715474</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>WOODSPRING SUITES REVIEW</t>
+  </si>
+  <si>
+    <t>We booked our room through Hotels.com for a double bed room for 5 nights. They gave us a room with one bed and stated that even though we had an email confirmation that we booked for a double bed they stated Hotels.com sent a reservation for one bed and that because they were unable to contact the manager we would have to pay additional fees. The staff was very unprofessional in there tone and mannerisms.. They were putting out a lady and her children for reasons not really know to us but the that was not the point.  The way they spoke and treated her was humiliating and embarrassing especially in front of other people. Among some other things that we witnessed. Upon not being able to contact the manager we asked that our money be refunded in full and it was. I will follow up with Hotels.com about our double bed room reservation. But based on my visit I will not be back nor recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>We booked our room through Hotels.com for a double bed room for 5 nights. They gave us a room with one bed and stated that even though we had an email confirmation that we booked for a double bed they stated Hotels.com sent a reservation for one bed and that because they were unable to contact the manager we would have to pay additional fees. The staff was very unprofessional in there tone and mannerisms.. They were putting out a lady and her children for reasons not really know to us but the that was not the point.  The way they spoke and treated her was humiliating and embarrassing especially in front of other people. Among some other things that we witnessed. Upon not being able to contact the manager we asked that our money be refunded in full and it was. I will follow up with Hotels.com about our double bed room reservation. But based on my visit I will not be back nor recommend this place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r473419640-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
@@ -333,6 +432,60 @@
 Mr. Thomas is no exception to the service you receive here. He is maintenance and you don't see him much as he's very busy, but when you do he too brightens your day. Very attentive, courteous, respectful, and understanding. Jack of all trades....This hotel may be listed as 2 - star &amp; rightfully so structurally speaking. However, when it comes to the people who work here, the very embodiment &amp; core of the experience, it is off the charts. If you are looking for luxury &amp; high end ammenities this is not the place for you. If you're looking for simplicity, where your needs are met, and the service is impeccable than it fits the bill. Hotel: Simple. Convenient. Inexpensive. Functional. Down To Earth. Service: Outstanding. Ms. D is the absolute epitome &amp; model of what customer service should be. Professional. Attentive. Personable. Loving. Beautiful Personality. She is the only one that I have ever met that will literally go above &amp; beyond to ensure the needs of the customer are met. The only one that will come down at 2 in the morning &amp; get you toilet paper. &amp; with a smile on her face. Lol. A ray of sunshine that brightens the day of every single person that walks through the door. She treats everyone with respect &amp; kindness. Treats everyone like family. You can talk to her for hours &amp; it's like you've known her forever. Mr. Thomas is no exception to the service you receive here. He is maintenance and you don't see him much as he's very busy, but when you do he too brightens your day. Very attentive, courteous, respectful, and understanding. Jack of all trades. If you ever need something fixed he is the man to do the job. Does it in a timely &amp; respectful manner. So, yes, structurally speaking there is much left to be desired. However, the service &amp; people- the quality &amp; caliber are insurmounable. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r444562738-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444562738</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Ahmad H.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 5 months. I can honestly say this place is VERY clean. The COMPLETE staff was Always helpful and friendly. I personally recommend this place because it's Affordable, and has a comfortable home away from home feel to it. Thanks again for EVERYTHING Tracy, Dee, Bryce, Mr. Thomas and to everyone else who makes this hotel a PLEASANT stay! 5 STARS MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 5 months. I can honestly say this place is VERY clean. The COMPLETE staff was Always helpful and friendly. I personally recommend this place because it's Affordable, and has a comfortable home away from home feel to it. Thanks again for EVERYTHING Tracy, Dee, Bryce, Mr. Thomas and to everyone else who makes this hotel a PLEASANT stay! 5 STARS More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r423515990-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423515990</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Thank you Ms. Deirdre and Kim</t>
+  </si>
+  <si>
+    <t>I experienced a good service and attitude with Ms. Deirdre and Kim in the front desk. They helped me to solve the reservation problem. Every time I meet Ms. Deirdre, I will say " Thanks, Ms. Deirdre "MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>I experienced a good service and attitude with Ms. Deirdre and Kim in the front desk. They helped me to solve the reservation problem. Every time I meet Ms. Deirdre, I will say " Thanks, Ms. Deirdre "More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r422511117-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -348,9 +501,6 @@
     <t>I have been  through many hotel stays, but Value  Place extended stay in Houston TX, is the most memorable. It is not only clean, the staff is very kind and welcoming. There is a FOH worker name Kim Barrs that knows and understand the meaning of  Great Customer Service. This is a lady that can be a mentor to others on how to run a hotel and giving the guest the feeling of home away from home. I will give this place a 5, for clean and Kim Barrs!MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -378,9 +528,6 @@
     <t>I arrived early before check-in time, and front desk (Tracy) went out of her way to be accommodating. I also asked for extra pillows, and once again the staff was very helpful. The room was very clean and comfortable. I had a great stay and would highly recommend this location. All the staff was friendly &amp; overall  GREAT !!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Stephen S, General Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded September 21, 2016</t>
   </si>
   <si>
@@ -405,9 +552,6 @@
     <t>I cant fault these great team: Kim, Tracy, Deirdre, and Lisa. there to assist, polite, welcoming and assisted me to settle in, not only in the hotel but around the city of Houston by provide city guide and attractions. Perfect team.Clean room, thumps up !!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>Stephen S, General Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded July 31, 2016</t>
   </si>
   <si>
@@ -417,6 +561,51 @@
     <t>I cant fault these great team: Kim, Tracy, Deirdre, and Lisa. there to assist, polite, welcoming and assisted me to settle in, not only in the hotel but around the city of Houston by provide city guide and attractions. Perfect team.Clean room, thumps up !!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r381990778-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381990778</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel and Friendly Staff!</t>
+  </si>
+  <si>
+    <t>Had a great stay at the Value Place in Houston! Clean room and a great price. And the staff is excellent! Jim B. and the others were very friendly and helpful our entire stay. Parking was great too! I definitely recommend staying here. Room had a stove, fridge, freezer, sink and a microwave. Free WiFi too!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Had a great stay at the Value Place in Houston! Clean room and a great price. And the staff is excellent! Jim B. and the others were very friendly and helpful our entire stay. Parking was great too! I definitely recommend staying here. Room had a stove, fridge, freezer, sink and a microwave. Free WiFi too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r350530354-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350530354</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>I had no surprises, as  Emelda explained what the charges would be if I used their linen services, which I declined as I had my own linens. Emelda let me know when housekeeping would clean the room, and since I worked the night shift, Emelda told me to let her know my schedule so housekeeping could change the day my room was cleaned.     Emelda Burton is an outstanding Assistant General Manager.  Emelda was very helpful, understanding, and she always had a smile on her face.    Major Kudos to Emelda, and I thank her for all her helpMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I had no surprises, as  Emelda explained what the charges would be if I used their linen services, which I declined as I had my own linens. Emelda let me know when housekeeping would clean the room, and since I worked the night shift, Emelda told me to let her know my schedule so housekeeping could change the day my room was cleaned.     Emelda Burton is an outstanding Assistant General Manager.  Emelda was very helpful, understanding, and she always had a smile on her face.    Major Kudos to Emelda, and I thank her for all her helpMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r349526154-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -432,15 +621,6 @@
     <t>Omg!! I booked this place on Booking.com. Needless to say the info and pics were very misleading. Once arriving I had to use a mysterious phone to call for assistance. Yuk! Once the manager arrived and stated that I woke him up. He proceeded to check me in and conveniently could not find my reservation, which was fine with me because the place smelled of piss. I would not send my worst enemy here. It is a place for nobody.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t>Stephen S, Manager at WoodSpring Suites Houston Westchase, responded to this reviewResponded June 21, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 21, 2016</t>
-  </si>
-  <si>
     <t>Omg!! I booked this place on Booking.com. Needless to say the info and pics were very misleading. Once arriving I had to use a mysterious phone to call for assistance. Yuk! Once the manager arrived and stated that I woke him up. He proceeded to check me in and conveniently could not find my reservation, which was fine with me because the place smelled of piss. I would not send my worst enemy here. It is a place for nobody.More</t>
   </si>
   <si>
@@ -483,6 +663,45 @@
     <t>I have been at Value Place/West-Chase for over a year. In the beginning I did not enjoy being misplace but living here has enlighten my prospective of being misplace. I quickly learn to appreciate the privy of being able to have this accommodation to result to. Value Place at 5959 W Sam Houston S. Pkwy provides excellent customer expertise, room services and resident attention. Value Place provide all the amenities of your own home and the price is very affordable. I love the fact the I chose Value Place as a short term solutions.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r336082735-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336082735</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC Machines Programmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was on a job assignment in houston and stayed at this hotel for about 8 days, the staff were awesome and the manager I believe his name was Thomas went out of his way to make us very comfortable.  I liked that hot coffee.  Thanks! Whenever I'm in houston I will be staying there again. Happy new year to the crew. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r323968292-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323968292</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Very Bad welcome from the employee and rooms are so stinky</t>
+  </si>
+  <si>
+    <t>We arrive so tired after we was lost looking for the hotel,  and the employee closed the window door in front our face, then when we say helloooo he opened the window, very bad attitude, so rude the black guy is not good to be at front desk because all i wanted is get out of there but we where so tired. I did not saw his name he has not name tag on but it was a young lady too she was more nice at least she smiled and say hi to us, the guy was so so rude and he does not wanted no body be there i guess this is so bad service for guesses i will not reccomended to any one the owner of this place need put stop to that or he will have to many complainings. then the room was stinky they told us that is not smoke room but i don't think so, it was so stinky. i will never never stay in that hotel .MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We arrive so tired after we was lost looking for the hotel,  and the employee closed the window door in front our face, then when we say helloooo he opened the window, very bad attitude, so rude the black guy is not good to be at front desk because all i wanted is get out of there but we where so tired. I did not saw his name he has not name tag on but it was a young lady too she was more nice at least she smiled and say hi to us, the guy was so so rude and he does not wanted no body be there i guess this is so bad service for guesses i will not reccomended to any one the owner of this place need put stop to that or he will have to many complainings. then the room was stinky they told us that is not smoke room but i don't think so, it was so stinky. i will never never stay in that hotel .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r316603946-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -498,9 +717,6 @@
     <t>My family and I enjoyed our stay at this hotel. The receptionist Tenesha was very helpful and friendly, she made our check in process easy. The room was clean and bigger than most. My family and I Will be extending our stay.</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r316169616-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -534,6 +750,39 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r305117060-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305117060</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I Mrs Omoniyi Adekemi Williams-Ugiagbe and my two daughters, visited the USA and lodge at value place hotel, at Houston westchase. We got the excellent welcome attitude and warm greetings. To talk about the rooms, there just like a home. There en suit is more comfortable, a kitchen with a kitchen cabinets, a fridge and a freezer, a very clean toilets and rooms are also spacious. Honestly, myself and my kids don't feel like leaving the hotel. I give my honest advise to everyone looking up to lodge here to see value place as a place far better of a house and more comfortable. Thanks @ 08-30-2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r301872112-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301872112</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Kolache Maker</t>
+  </si>
+  <si>
+    <t>Stayed here because of training at a nearby Kolache Factory. Tracy (General Manager) and Emelda (Assistant Manager) are the best! Helpful, friendly and professional. For an extended stay hotel, this place is great.  I would definitely stay here again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r295323527-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -588,6 +837,33 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r281028468-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281028468</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Engr</t>
+  </si>
+  <si>
+    <t>this vale place is a very nice place and the environment is always kept clean security and very safe to leave if you come into houston to stay befor any apartment I can say is more better than to rent the staff are very wonderful People</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r280901698-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280901698</t>
+  </si>
+  <si>
+    <t>Jehovahstool</t>
+  </si>
+  <si>
+    <t>I had a magnificent stay here &amp; the staff (Martine, Tracy &amp; Willie) were splendid &amp; extremely helpful. If I were 2 stay in Houston again this would be one of my top few choices. I felt happier here than some of the more costlier hotels, it's nice 2 feel like ur @ hm &amp; among family...</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r279530708-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -634,6 +910,42 @@
   </si>
   <si>
     <t>I stayed here for 6 weeks whilst undergoing medical treatment. I could not have stayed at a better place!!! Firstly, I was very much impressed with the cleanliness of the lobby, corridor and my room. Secondly, I felt very safe in my room as only guests with card/key has access to the building.  But the highlight of my trip was the very friendly and helpful staff there who made me feel "at home"!!!! Needless to say, I will be back here upon my return to Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r212546428-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212546428</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWFUL!  </t>
+  </si>
+  <si>
+    <t>After a long road trip and arriving after regular lobby hours we are told NO VACANCY when we dialed the lobby phone as instructed by 800 value place. so ended up at a more expensive hotel for first 2 nights because of concern for safety in the area.  It gets pretty sketchy... I go back for check in with our reservation number for nonsmoking studio and get told again "no availability" I call the 800 number again and they say there are available rooms. I go back to lobby and the lady says no studio but doubles are available but she has to charge us for the upgrade.  So I get back on phone to 800 number. Then I am told we have to pay whether we stay or not.  It was horrible customer service.  Horrible.  I would not recommend this place at all until they have new management and nicer employees. It's terrible. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>After a long road trip and arriving after regular lobby hours we are told NO VACANCY when we dialed the lobby phone as instructed by 800 value place. so ended up at a more expensive hotel for first 2 nights because of concern for safety in the area.  It gets pretty sketchy... I go back for check in with our reservation number for nonsmoking studio and get told again "no availability" I call the 800 number again and they say there are available rooms. I go back to lobby and the lady says no studio but doubles are available but she has to charge us for the upgrade.  So I get back on phone to 800 number. Then I am told we have to pay whether we stay or not.  It was horrible customer service.  Horrible.  I would not recommend this place at all until they have new management and nicer employees. It's terrible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r210088078-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210088078</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>EXCELLANT Place to stay and thenStaff</t>
+  </si>
+  <si>
+    <t>We were Very Pleased with staying here the Staff is Very Helpful . Clean and Easy to get to from anywhere you go ! They Honored our Reservation very Easy in fact they let us come in a day early , which helped us out a lot !! We Highly Recommend staying here !!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1147065-r148609281-WoodSpring_Suites_Houston_Westchase-Houston_Texas.html</t>
@@ -1225,7 +1537,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1237,13 +1549,13 @@
       <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1292,7 +1604,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1300,17 +1612,17 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1359,7 +1671,7 @@
         <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>72</v>
@@ -1367,15 +1679,17 @@
       <c r="O4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1424,27 +1738,37 @@
         <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1460,7 +1784,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1469,47 +1793,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -1525,7 +1849,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1534,43 +1858,47 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
         <v>101</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1586,7 +1914,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1595,43 +1923,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>107</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="X8" t="s">
         <v>108</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Y8" t="s">
         <v>109</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>110</v>
-      </c>
-      <c r="X8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -1647,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1656,47 +1990,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" t="s">
-        <v>117</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" t="s">
-        <v>118</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +2038,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1721,47 +2047,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="J10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>127</v>
-      </c>
       <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
+        <v>73</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1777,7 +2103,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1786,22 +2112,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>132</v>
-      </c>
-      <c r="J11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>136</v>
       </c>
       <c r="O11" t="s">
         <v>63</v>
@@ -1816,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -1838,7 +2164,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1847,33 +2173,31 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>141</v>
       </c>
-      <c r="J12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>136</v>
-      </c>
       <c r="O12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -1883,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -1905,7 +2229,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1914,47 +2238,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
         <v>147</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>148</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>149</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>150</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>151</v>
-      </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -1970,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1979,45 +2299,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -2033,7 +2351,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2042,31 +2360,31 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2075,10 +2393,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
@@ -2094,7 +2416,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2103,39 +2425,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
         <v>63</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
@@ -2151,7 +2481,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2160,45 +2490,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
@@ -2214,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2223,39 +2551,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -2271,7 +2609,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2280,25 +2618,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2309,10 +2647,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
@@ -2328,7 +2670,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2337,31 +2679,33 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>192</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>187</v>
-      </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -2370,10 +2714,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -2389,7 +2737,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2398,43 +2746,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -2450,7 +2802,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2459,22 +2811,22 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
         <v>73</v>
@@ -2491,7 +2843,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
@@ -2507,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2516,35 +2868,31 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
         <v>73</v>
       </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2906,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
@@ -2574,7 +2922,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2583,41 +2931,45 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -2633,7 +2985,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2642,39 +2994,991 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>211</v>
+      </c>
+      <c r="O36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>301</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" t="s">
+        <v>306</v>
+      </c>
+      <c r="L38" t="s">
+        <v>307</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>301</v>
+      </c>
+      <c r="O38" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" t="s">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>313</v>
+      </c>
+      <c r="O39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>319</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58460</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" t="s">
+        <v>322</v>
+      </c>
+      <c r="K41" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s">
+        <v>324</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
